--- a/biology/Botanique/Pentarrhinum_abyssinicum/Pentarrhinum_abyssinicum.xlsx
+++ b/biology/Botanique/Pentarrhinum_abyssinicum/Pentarrhinum_abyssinicum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pentarrhinum abyssinicum Decne. est une espèce de plantes à fleurs de la famille des Apocynaceae et du genre Pentarrhinum, présente en Afrique tropicale : Cameroun, Éthiopie, Rwanda, Burundi, Kenya, Tanzanie, Angola, Zambie, Malawi, Namibie, République démocratique du Congo, Zimbabwe[5].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pentarrhinum abyssinicum Decne. est une espèce de plantes à fleurs de la famille des Apocynaceae et du genre Pentarrhinum, présente en Afrique tropicale : Cameroun, Éthiopie, Rwanda, Burundi, Kenya, Tanzanie, Angola, Zambie, Malawi, Namibie, République démocratique du Congo, Zimbabwe.
 La sous-espèce Pentarrhinum abyssinicum subsp. ijimense Goyder est endémique du Cameroun, où elle n'a été observée que sur le mont Oku et la crête d'Ijim.
 </t>
         </is>
@@ -513,6 +525,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -538,11 +552,13 @@
           <t>Liste des sous-espèces et variétés</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon The Plant List            (25 septembre 2017)[4] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon The Plant List            (25 septembre 2017) :
 sous-espèce Pentarrhinum abyssinicum subsp. angolense (N.E.Br.) Liede &amp; Nicholas
-Selon Tropicos                                           (25 septembre 2017)[1] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (25 septembre 2017) (Attention liste brute contenant possiblement des synonymes) :
 sous-espèce Pentarrhinum abyssinicum subsp. abyssinicum
 sous-espèce Pentarrhinum abyssinicum subsp. angolense (N.E. Br.) Liede &amp; Nicholas
 sous-espèce Pentarrhinum abyssinicum subsp. ijimense Goyder
